--- a/data/Beispiel_8a.xlsx
+++ b/data/Beispiel_8a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_BBE5D3F976122D04DB21D95283CB54518BF46050" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E07F293-78E5-4D0E-9037-487557E47E9A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{79E52F01-784B-41D3-AFAA-C73478ADE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561A9464-CCCD-4C21-B970-DABD200DC29A}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Höhenkorrektur" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Eingaben für die Kurzschlussfestigkeit bei Leiterseilen</t>
   </si>
@@ -174,13 +174,16 @@
   </si>
   <si>
     <t>[2] IEC 60071-2, Kapitel 4.2.2</t>
+  </si>
+  <si>
+    <t>f Frequenz des Netzes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;MVA&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;m&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -191,7 +194,8 @@
     <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;kN&quot;"/>
     <numFmt numFmtId="172" formatCode="#,##0\ &quot;N/m&quot;"/>
     <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;Hz&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -635,7 +639,7 @@
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2"/>
@@ -648,7 +652,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -762,10 +766,9 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="175" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,6 +777,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -781,6 +788,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,9 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1032,16 +1039,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="59.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="4" customWidth="1"/>
     <col min="4" max="6" width="13.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="4" customWidth="1"/>
@@ -1065,19 +1072,19 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1145,10 +1152,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1175,179 +1182,184 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="42"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B17" s="37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B18" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B19" s="34">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="42"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="41"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B21" s="25">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B22" s="25">
         <v>5.3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B23" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B24" s="25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="42"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="41"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B26" s="35">
         <v>17.8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B27" s="35">
         <v>15.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B28" s="36">
         <v>500000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="42"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B30" s="25">
         <v>4.2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B30" s="25">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="B31" s="25">
         <v>9.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B33" s="25">
         <v>14.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="25"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="25"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="25"/>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="27"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="B39" s="27"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -1413,14 +1425,10 @@
       <c r="A60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="9"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1489,17 +1497,24 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A11:B11"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Abgespannt, Aufgelegt, Unterschlaufung, Schlaufe am Spannfeldende"</formula1>
     </dataValidation>
@@ -1518,14 +1533,17 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"60, 70, 80, 90, 100"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" sqref="B27" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" showInputMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"100000, 150000, 1300000, 400000, 2000000, 600000, 3000000"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>_xlfn._LONGTEXT("16-AL1 (16); 24-AL1 (25); 34-AL1 (35); 49-AL1 (50); 48-AL1 (50); 66-AL1 (70); 93-AL1 (95); 117-AL1 (120); 147-AL1 (150); 182-AL1 (185); 243-AL1 (240); 299-AL1 (300); 400-AL1 (400); 500-AL1 (500); 626-AL1 (625); 802-AL1 (800); 1000-AL1 (1000); 16-AL3 (16);"," 24-AL3 (25); 34-AL3 (35); 49-AL3 (50); 66-AL3 (70); 93-AL3 (95); 117-AL3 (120); 147-AL3 (150); 182-AL3 (185); 243-AL3 (240); 299-AL3 (300); 400-AL3 (400); 500-AL3 (500); 626-AL3 (625); 802-AL3 (800); 1000-AL3 (1000); 22-AL4 (ASTER 22); 34-AL4 (ASTER 34,4","); 55-AL4 (ASTER 54,6); 76-AL4 (ASTER 75,5); 117-AL4 (ASTER 117); 148-AL4 (ASTER 148); 182-AL4 (ASTER 181,6); 228-AL4 (ASTER 228); 228-AL4 (ASTER 288); 366-AL4 (ASTER 366); 570-AL4 (ASTER 570); 851-AL4 (ASTER 851); 1144-AL4 (ASTER 1144); 1600-AL4 (1596-AL","4, ASTER 1600); 15-AL1/3-ST1A (16/2,5); 24-AL1/4-ST1A (25/4); 34-AL1/6-ST1A (35/6); 44-AL1/32-ST1A (44/32); 48-AL1/8-ST1A (50/8); 51-AL1/30-ST1A (50/30); 70-AL1/11-ST1A (70/12); 94-AL1/15-ST1A (95/15); 97-AL1/56-ST1A (95/55); 106-AL1/76-ST1A (105/75); 122","-AL1/20-ST1A (120/20); 122-AL1/71-ST1A (120/70); 128-AL1/30-ST1A (125/30); 149-AL1/24-ST1A (150/25); 172-AL1/40-ST1A (170/40); 184-AL1/30-ST1A (185/30); 209-AL1/34-ST1A (210/35); 212-AL1/49-ST1A (210/50); 231-AL1/30-ST1A (230/30); 243-AL1/39-ST1A (240/40)","; 264-AL1/34-ST1A (265/35); 304-AL1/49-ST1A (300/50); 305-AL1/39-ST1A (305/40); 339-AL1/30-ST1A (340/30); 382-AL1/49-ST1A (380/50); 386-AL1/34-ST1A (385/35); 434-AL1/56-ST1A (435/55); 449-AL1/39-ST1A (450/40); 490-AL1/64-ST1A (490/65); 494-AL1/34-ST1A (49","5/35); 511-AL1/45-ST1A (510/45); 550-AL1/71-ST1A (550/70); 562-AL1/49-ST1A (560/50); 571-AL1/39-ST1A (570/40); 653-AL1/45-ST1A (650/45); 679-AL1/86-ST1A (680/85); 1046-AL1/45-ST1A (1045/45); 15-AL3/3-ST1A (16/2,5); 24-AL3/ 4-ST1A (25/4); 34-AL3/ 6-ST1A (3","5/6); 44-AL3/32-ST1A (44/32); 48-AL3/ 8-ST1A (50/8); 51-AL3/30-ST1A (50/30); 70-AL3/ 11-ST1A (70/12); 94-AL3/ 22-ST1A (94/22); 94-AL3/ 15-ST1A (95/15); 97-AL3/ 34-ST1A (95/55); 106-AL3/76-ST1A (105/75); 122-AL3/ 20-ST1A (120/20); 122-AL3/ 71-ST1A (120/70)","; 128-AL3/ 30-ST1A (125/30); 149-AL3/ 24-ST1A (150/25); 172-AL3/ 40-ST1A (170/40); 184-AL3/ 30-ST1A (185/30); 209-AL3/ 34-ST1A (210/35); 212-AL3/ 49-ST1A (210/50); 231-AL3/ 30-ST1A (230/30); 243-AL3/ 39-ST1A (240/40); 264-AL3/ 34-ST1A (265/35); 304-AL3/ 4","9-ST1A (300/50); 305-AL3/ 39-ST1A (305/40); 339-AL3/ 30-ST1A (340/30); 382-AL3/ 49-ST1A (380/50); 386-AL3/ 34-ST1A (385/35); 434-AL3/ 56-ST1A (435/55); 449-AL3/ 39-ST1A (450/40); 490-AL3/ 64-ST1A (490/65); 550-AL3/ 71-ST1A (550/70); 562-AL3/ 49-ST1A (560/","50); 679-AL3/ 86-ST1A (680/85); 24-A20SA (25); 34-A20SA (35); 49-A20SA (50); 66-A20SA (70); 93-A20SA (95); 117-A20SA (120); 147-A20SA (150); 182-A20SA (185); 243-A20SA (240); 299-A20SA (300); DIN 48201-500-E-Cu; DIN 48201-400-E-Cu; DIN 48201-300-E-Cu; DIN"," 48201-240-E-Cu; DIN 48201-185-E-Cu; DIN 48201-150-E-Cu; DIN 48201-120-E-Cu; DIN 48201-95-E-Cu; DIN 48201-70-E-Cu; DIN 48201-50/19-E-Cu; DIN 48201-50/7-E-Cu; DIN 48201-35-E-Cu; DIN 48201-25-E-Cu; DIN 48201-16-E-Cu; DIN 48201-10-E-Cu; Bronze-Seil 10; Bronz","e-Seil 16; Bronze-Seil 25; Bronze-Seil 35; Bronze-Seil 50; Bronze-Seil 50; Bronze-Seil 70; Bronze-Seil 95; Bronze-Seil 120; Bronze-Seil 150; Bronze-Seil 185; Bronze-Seil 240; Bronze-Seil 300; Bronze-Seil 400; Bronze-Seil 500")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{D56A3006-452B-44E2-910F-A9FA4053D8DC}">
+      <formula1>"50,16.66"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.181102362204725" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.35433070866141742"/>
@@ -1567,10 +1585,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
@@ -1585,10 +1603,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="12" t="s">
         <v>48</v>
       </c>
@@ -1603,186 +1621,186 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>

--- a/data/Beispiel_8a.xlsx
+++ b/data/Beispiel_8a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{79E52F01-784B-41D3-AFAA-C73478ADE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561A9464-CCCD-4C21-B970-DABD200DC29A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{79E52F01-784B-41D3-AFAA-C73478ADE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79908751-D431-4E18-A498-21AEFF35FC19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,10 +183,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;MVA&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;m&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="##0\ &quot;°C&quot;"/>
     <numFmt numFmtId="168" formatCode="#,##0.0\ &quot;kA&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0.0\ &quot;s&quot;"/>
@@ -731,9 +730,6 @@
     <xf numFmtId="165" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,19 +777,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,8 +790,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1042,7 +1041,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1072,19 +1071,19 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1093,7 +1092,7 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
@@ -1105,7 +1104,7 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
@@ -1117,7 +1116,7 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
@@ -1129,7 +1128,7 @@
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1139,7 +1138,7 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>-20</v>
       </c>
     </row>
@@ -1147,21 +1146,21 @@
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>63</v>
       </c>
     </row>
@@ -1169,15 +1168,15 @@
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="28">
-        <v>1.8</v>
+      <c r="B13" s="54">
+        <v>1.81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>0.5</v>
       </c>
     </row>
@@ -1185,21 +1184,21 @@
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1207,7 +1206,7 @@
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1215,15 +1214,15 @@
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1258,16 +1257,16 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="40"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="34">
         <v>17.8</v>
       </c>
     </row>
@@ -1275,7 +1274,7 @@
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="34">
         <v>15.4</v>
       </c>
     </row>
@@ -1283,15 +1282,15 @@
       <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>500000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="40"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1585,10 +1584,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
@@ -1603,10 +1602,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="12" t="s">
         <v>48</v>
       </c>
@@ -1621,106 +1620,106 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1728,15 +1727,15 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1744,15 +1743,15 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -1760,15 +1759,15 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -1776,15 +1775,15 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
-      <c r="B24" s="41"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -1792,15 +1791,15 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
-      <c r="B26" s="41"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1809,6 +1808,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A27:B27"/>
@@ -1825,15 +1833,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.181102362204725" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141742"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/data/Beispiel_8a.xlsx
+++ b/data/Beispiel_8a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{79E52F01-784B-41D3-AFAA-C73478ADE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79908751-D431-4E18-A498-21AEFF35FC19}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{79E52F01-784B-41D3-AFAA-C73478ADE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2193AB77-F5D1-4185-B8B7-AC1D439773EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Eingaben für die Kurzschlussfestigkeit bei Leiterseilen</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>f Frequenz des Netzes</t>
+  </si>
+  <si>
+    <t>l_h_f Länge einer Klemme u. Formfaktor</t>
   </si>
 </sst>
 </file>
@@ -186,15 +189,15 @@
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;MVA&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;m&quot;"/>
-    <numFmt numFmtId="167" formatCode="##0\ &quot;°C&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0\ &quot;kA&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0\ &quot;s&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;kg&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;kN&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0\ &quot;N/m&quot;"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;Hz&quot;"/>
+    <numFmt numFmtId="166" formatCode="##0\ &quot;°C&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0\ &quot;kA&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0\ &quot;s&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;kg&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;kN&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0\ &quot;N/m&quot;"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;Hz&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -637,8 +640,8 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2"/>
@@ -651,7 +654,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -733,13 +736,16 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -750,9 +756,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,7 +765,10 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,10 +783,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,19 +805,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1071,19 +1077,19 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1151,10 +1157,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1168,7 +1174,7 @@
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="39">
         <v>1.81</v>
       </c>
     </row>
@@ -1189,10 +1195,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1219,10 +1225,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1241,127 +1247,130 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="25">
-        <v>5</v>
-      </c>
+      <c r="A23" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B25" s="25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="40"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B27" s="34">
         <v>17.8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B28" s="34">
         <v>15.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B29" s="35">
         <v>500000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="40"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="41"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B31" s="25">
         <v>4.2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" s="25">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="B32" s="25">
         <v>9.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B34" s="25">
         <v>14.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="25"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="25"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="25"/>
-    </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="27"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="B40" s="27"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1427,14 +1436,10 @@
       <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="9"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1503,12 +1508,19 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A11:B11"/>
@@ -1535,7 +1547,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" showInputMessage="1" sqref="B29" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"100000, 150000, 1300000, 400000, 2000000, 600000, 3000000"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0000-000008000000}">
@@ -1584,10 +1596,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
@@ -1602,10 +1614,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="12" t="s">
         <v>48</v>
       </c>
@@ -1620,106 +1632,106 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1727,15 +1739,15 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1743,15 +1755,15 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -1759,15 +1771,15 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -1775,15 +1787,15 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -1791,15 +1803,15 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1808,15 +1820,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A27:B27"/>
@@ -1833,6 +1836,15 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.181102362204725" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141742"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
